--- a/dataanalysis/data/predictions/1000/09180942_0944.xlsx
+++ b/dataanalysis/data/predictions/1000/09180942_0944.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="165">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-18</t>
   </si>
   <si>
@@ -506,12 +509,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -869,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH68"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,19 +975,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-2.53</v>
@@ -1008,7 +1008,7 @@
         <v>24220.26</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -1050,10 +1050,25 @@
         <v>-0.3</v>
       </c>
       <c r="X2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y2">
+        <v>-3.33</v>
+      </c>
+      <c r="Z2">
+        <v>14.68</v>
+      </c>
+      <c r="AA2">
+        <v>0.34</v>
       </c>
       <c r="AC2" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1061,22 +1076,25 @@
       <c r="AG2">
         <v>-0.4790676832199097</v>
       </c>
-      <c r="AH2" t="s">
-        <v>164</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-0.15</v>
@@ -1094,7 +1112,7 @@
         <v>126359.45</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1136,10 +1154,25 @@
         <v>-0.41</v>
       </c>
       <c r="X3" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y3">
+        <v>-9.869999999999999</v>
+      </c>
+      <c r="Z3">
+        <v>68.14</v>
+      </c>
+      <c r="AA3">
+        <v>-0.74</v>
       </c>
       <c r="AC3" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1147,22 +1180,25 @@
       <c r="AG3">
         <v>4.452564239501953</v>
       </c>
-      <c r="AH3" t="s">
-        <v>164</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300043</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-4.03</v>
@@ -1180,7 +1216,7 @@
         <v>34237.97</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1222,10 +1258,25 @@
         <v>-0.39</v>
       </c>
       <c r="X4" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y4">
+        <v>-2.51</v>
+      </c>
+      <c r="Z4">
+        <v>7.31</v>
+      </c>
+      <c r="AA4">
+        <v>-1.08</v>
       </c>
       <c r="AC4" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1233,22 +1284,25 @@
       <c r="AG4">
         <v>8.0831298828125</v>
       </c>
-      <c r="AH4" t="s">
-        <v>164</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2.15</v>
@@ -1266,7 +1320,7 @@
         <v>34016.05</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -1308,10 +1362,25 @@
         <v>-0.02</v>
       </c>
       <c r="X5" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y5">
+        <v>-5.94</v>
+      </c>
+      <c r="Z5">
+        <v>88.54000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>-1.36</v>
       </c>
       <c r="AC5" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1319,22 +1388,25 @@
       <c r="AG5">
         <v>3.218381643295288</v>
       </c>
-      <c r="AH5" t="s">
-        <v>164</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300083</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-1.34</v>
@@ -1352,7 +1424,7 @@
         <v>27740.08</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1393,8 +1465,23 @@
       <c r="W6">
         <v>-0.12</v>
       </c>
+      <c r="Y6">
+        <v>-3.24</v>
+      </c>
+      <c r="Z6">
+        <v>10.8</v>
+      </c>
+      <c r="AA6">
+        <v>-2.09</v>
+      </c>
       <c r="AC6" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1402,22 +1489,25 @@
       <c r="AG6">
         <v>-0.9410697221755981</v>
       </c>
-      <c r="AH6" t="s">
-        <v>164</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300115</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0.6</v>
@@ -1435,7 +1525,7 @@
         <v>232408.5</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1477,10 +1567,25 @@
         <v>-0.41</v>
       </c>
       <c r="X7" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y7">
+        <v>-8.9</v>
+      </c>
+      <c r="Z7">
+        <v>33.77</v>
+      </c>
+      <c r="AA7">
+        <v>6.09</v>
       </c>
       <c r="AC7" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1488,22 +1593,25 @@
       <c r="AG7">
         <v>20.90789985656738</v>
       </c>
-      <c r="AH7" t="s">
-        <v>164</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300207</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-3.33</v>
@@ -1521,7 +1629,7 @@
         <v>89622.07000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1562,8 +1670,23 @@
       <c r="W8">
         <v>-0.18</v>
       </c>
+      <c r="Y8">
+        <v>-1.32</v>
+      </c>
+      <c r="Z8">
+        <v>30.7</v>
+      </c>
+      <c r="AA8">
+        <v>2.64</v>
+      </c>
       <c r="AC8" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1571,22 +1694,25 @@
       <c r="AG8">
         <v>-1.238483309745789</v>
       </c>
-      <c r="AH8" t="s">
-        <v>164</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300237</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-0.8</v>
@@ -1604,7 +1730,7 @@
         <v>11219.42</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K9">
         <v>16</v>
@@ -1646,10 +1772,25 @@
         <v>-0.15</v>
       </c>
       <c r="X9" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y9">
+        <v>-6.44</v>
+      </c>
+      <c r="Z9">
+        <v>3.56</v>
+      </c>
+      <c r="AA9">
+        <v>-4.56</v>
       </c>
       <c r="AC9" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1657,22 +1798,25 @@
       <c r="AG9">
         <v>3.005774736404419</v>
       </c>
-      <c r="AH9" t="s">
-        <v>164</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300252</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-1.88</v>
@@ -1690,7 +1834,7 @@
         <v>32652.14</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1732,10 +1876,25 @@
         <v>-0.63</v>
       </c>
       <c r="X10" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y10">
+        <v>-0.19</v>
+      </c>
+      <c r="Z10">
+        <v>16.98</v>
+      </c>
+      <c r="AA10">
+        <v>8.710000000000001</v>
       </c>
       <c r="AC10" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1743,22 +1902,25 @@
       <c r="AG10">
         <v>1.607277035713196</v>
       </c>
-      <c r="AH10" t="s">
-        <v>164</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300258</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.41</v>
@@ -1776,7 +1938,7 @@
         <v>31721.36</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1817,8 +1979,23 @@
       <c r="W11">
         <v>0.21</v>
       </c>
+      <c r="Y11">
+        <v>-3.73</v>
+      </c>
+      <c r="Z11">
+        <v>16.5</v>
+      </c>
+      <c r="AA11">
+        <v>-6.2</v>
+      </c>
       <c r="AC11" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1826,22 +2003,25 @@
       <c r="AG11">
         <v>7.844321250915527</v>
       </c>
-      <c r="AH11" t="s">
-        <v>164</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300274</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-1.96</v>
@@ -1859,7 +2039,7 @@
         <v>198313.87</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K12">
         <v>12</v>
@@ -1901,10 +2081,25 @@
         <v>-0.12</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y12">
+        <v>-3.75</v>
+      </c>
+      <c r="Z12">
+        <v>142.3</v>
+      </c>
+      <c r="AA12">
+        <v>2.94</v>
       </c>
       <c r="AC12" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1912,22 +2107,25 @@
       <c r="AG12">
         <v>5.071274280548096</v>
       </c>
-      <c r="AH12" t="s">
-        <v>164</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300290</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-1.21</v>
@@ -1945,7 +2143,7 @@
         <v>20694.26</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K13">
         <v>8</v>
@@ -1987,10 +2185,25 @@
         <v>-0.08</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y13">
+        <v>0.57</v>
+      </c>
+      <c r="Z13">
+        <v>29.61</v>
+      </c>
+      <c r="AA13">
+        <v>-4.73</v>
       </c>
       <c r="AC13" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1998,22 +2211,25 @@
       <c r="AG13">
         <v>4.310086250305176</v>
       </c>
-      <c r="AH13" t="s">
-        <v>164</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300324</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>2.37</v>
@@ -2031,7 +2247,7 @@
         <v>66743.28</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2073,10 +2289,25 @@
         <v>0.04</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y14">
+        <v>3.31</v>
+      </c>
+      <c r="Z14">
+        <v>7.93</v>
+      </c>
+      <c r="AA14">
+        <v>1.8</v>
       </c>
       <c r="AC14" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2084,22 +2315,25 @@
       <c r="AG14">
         <v>4.037431240081787</v>
       </c>
-      <c r="AH14" t="s">
-        <v>164</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300331</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.22</v>
@@ -2117,7 +2351,7 @@
         <v>64243.4</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -2159,10 +2393,25 @@
         <v>0.09</v>
       </c>
       <c r="X15" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y15">
+        <v>4.34</v>
+      </c>
+      <c r="Z15">
+        <v>42</v>
+      </c>
+      <c r="AA15">
+        <v>10.53</v>
       </c>
       <c r="AC15" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2170,22 +2419,25 @@
       <c r="AG15">
         <v>9.30048942565918</v>
       </c>
-      <c r="AH15" t="s">
-        <v>164</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300450</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>3.79</v>
@@ -2203,7 +2455,7 @@
         <v>195529.04</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -2245,10 +2497,25 @@
         <v>0.09</v>
       </c>
       <c r="X16" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y16">
+        <v>-1.99</v>
+      </c>
+      <c r="Z16">
+        <v>59.88</v>
+      </c>
+      <c r="AA16">
+        <v>7.7</v>
       </c>
       <c r="AC16" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2256,22 +2523,25 @@
       <c r="AG16">
         <v>4.031693935394287</v>
       </c>
-      <c r="AH16" t="s">
-        <v>164</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300457</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-0.2</v>
@@ -2289,7 +2559,7 @@
         <v>48809.95</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17">
         <v>13</v>
@@ -2331,10 +2601,25 @@
         <v>-0.05</v>
       </c>
       <c r="X17" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y17">
+        <v>-5.15</v>
+      </c>
+      <c r="Z17">
+        <v>34.88</v>
+      </c>
+      <c r="AA17">
+        <v>-0.06</v>
       </c>
       <c r="AC17" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2342,22 +2627,25 @@
       <c r="AG17">
         <v>4.825637817382812</v>
       </c>
-      <c r="AH17" t="s">
-        <v>164</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300458</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.02</v>
@@ -2375,7 +2663,7 @@
         <v>90965.16</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2417,10 +2705,25 @@
         <v>-0.19</v>
       </c>
       <c r="X18" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y18">
+        <v>-3.02</v>
+      </c>
+      <c r="Z18">
+        <v>51.1</v>
+      </c>
+      <c r="AA18">
+        <v>-1.58</v>
       </c>
       <c r="AC18" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2428,22 +2731,25 @@
       <c r="AG18">
         <v>7.712769508361816</v>
       </c>
-      <c r="AH18" t="s">
-        <v>164</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300469</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>3.19</v>
@@ -2461,7 +2767,7 @@
         <v>39355.41</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19">
         <v>21</v>
@@ -2503,10 +2809,25 @@
         <v>0.08</v>
       </c>
       <c r="X19" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y19">
+        <v>-2.47</v>
+      </c>
+      <c r="Z19">
+        <v>90.8</v>
+      </c>
+      <c r="AA19">
+        <v>-0.91</v>
       </c>
       <c r="AC19" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2514,22 +2835,25 @@
       <c r="AG19">
         <v>16.79622077941895</v>
       </c>
-      <c r="AH19" t="s">
-        <v>164</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300475</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0.78</v>
@@ -2547,7 +2871,7 @@
         <v>59732.26</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -2589,10 +2913,25 @@
         <v>0.04</v>
       </c>
       <c r="X20" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y20">
+        <v>2.68</v>
+      </c>
+      <c r="Z20">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="AA20">
+        <v>2.39</v>
       </c>
       <c r="AC20" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2600,22 +2939,25 @@
       <c r="AG20">
         <v>16.30926704406738</v>
       </c>
-      <c r="AH20" t="s">
-        <v>164</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300476</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-1.49</v>
@@ -2633,7 +2975,7 @@
         <v>303570.05</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K21">
         <v>72</v>
@@ -2675,10 +3017,25 @@
         <v>-0.09</v>
       </c>
       <c r="X21" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y21">
+        <v>-1.69</v>
+      </c>
+      <c r="Z21">
+        <v>329.12</v>
+      </c>
+      <c r="AA21">
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC21" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2686,22 +3043,25 @@
       <c r="AG21">
         <v>-2.113592147827148</v>
       </c>
-      <c r="AH21" t="s">
-        <v>164</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300503</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-0.76</v>
@@ -2719,7 +3079,7 @@
         <v>22088.86</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2761,10 +3121,25 @@
         <v>0.12</v>
       </c>
       <c r="X22" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y22">
+        <v>-4.53</v>
+      </c>
+      <c r="Z22">
+        <v>32.86</v>
+      </c>
+      <c r="AA22">
+        <v>-3.13</v>
       </c>
       <c r="AC22" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2772,22 +3147,25 @@
       <c r="AG22">
         <v>8.091132164001465</v>
       </c>
-      <c r="AH22" t="s">
-        <v>165</v>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300528</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.62</v>
@@ -2805,7 +3183,7 @@
         <v>37473.08</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -2847,10 +3225,25 @@
         <v>-0.06</v>
       </c>
       <c r="X23" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y23">
+        <v>-1.79</v>
+      </c>
+      <c r="Z23">
+        <v>28.1</v>
+      </c>
+      <c r="AA23">
+        <v>-3.07</v>
       </c>
       <c r="AC23" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2858,22 +3251,25 @@
       <c r="AG23">
         <v>2.639002799987793</v>
       </c>
-      <c r="AH23" t="s">
-        <v>164</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300539</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>6.05</v>
@@ -2891,7 +3287,7 @@
         <v>44602.33</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -2933,10 +3329,25 @@
         <v>0.45</v>
       </c>
       <c r="X24" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y24">
+        <v>-5.56</v>
+      </c>
+      <c r="Z24">
+        <v>42.83</v>
+      </c>
+      <c r="AA24">
+        <v>-2.26</v>
       </c>
       <c r="AC24" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2944,22 +3355,25 @@
       <c r="AG24">
         <v>2.639715909957886</v>
       </c>
-      <c r="AH24" t="s">
-        <v>164</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300604</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>1.16</v>
@@ -2977,7 +3391,7 @@
         <v>72237.2</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K25">
         <v>17</v>
@@ -3019,10 +3433,25 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y25">
+        <v>-1.39</v>
+      </c>
+      <c r="Z25">
+        <v>67.13</v>
+      </c>
+      <c r="AA25">
+        <v>2.49</v>
       </c>
       <c r="AC25" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3030,22 +3459,25 @@
       <c r="AG25">
         <v>3.607100963592529</v>
       </c>
-      <c r="AH25" t="s">
-        <v>164</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300620</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.06</v>
@@ -3063,7 +3495,7 @@
         <v>47437.17</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K26">
         <v>7</v>
@@ -3105,10 +3537,25 @@
         <v>-0.14</v>
       </c>
       <c r="X26" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y26">
+        <v>1.77</v>
+      </c>
+      <c r="Z26">
+        <v>131.1</v>
+      </c>
+      <c r="AA26">
+        <v>23.73</v>
       </c>
       <c r="AC26" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3116,22 +3563,25 @@
       <c r="AG26">
         <v>5.980408191680908</v>
       </c>
-      <c r="AH26" t="s">
-        <v>164</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300660</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-0.77</v>
@@ -3149,7 +3599,7 @@
         <v>39161.1</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -3191,10 +3641,25 @@
         <v>0.05</v>
       </c>
       <c r="X27" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y27">
+        <v>-8</v>
+      </c>
+      <c r="Z27">
+        <v>62.33</v>
+      </c>
+      <c r="AA27">
+        <v>0.32</v>
       </c>
       <c r="AC27" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3202,22 +3667,25 @@
       <c r="AG27">
         <v>4.238706111907959</v>
       </c>
-      <c r="AH27" t="s">
-        <v>164</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300680</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-0.85</v>
@@ -3235,7 +3703,7 @@
         <v>31178.31</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28">
         <v>6</v>
@@ -3277,10 +3745,25 @@
         <v>0.09</v>
       </c>
       <c r="X28" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y28">
+        <v>-4.61</v>
+      </c>
+      <c r="Z28">
+        <v>61.5</v>
+      </c>
+      <c r="AA28">
+        <v>-6.24</v>
       </c>
       <c r="AC28" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3288,22 +3771,25 @@
       <c r="AG28">
         <v>12.69647121429443</v>
       </c>
-      <c r="AH28" t="s">
-        <v>164</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300684</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>3.63</v>
@@ -3321,7 +3807,7 @@
         <v>77093.67999999999</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3363,10 +3849,25 @@
         <v>0.43</v>
       </c>
       <c r="X29" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y29">
+        <v>-3.44</v>
+      </c>
+      <c r="Z29">
+        <v>45.5</v>
+      </c>
+      <c r="AA29">
+        <v>-1.58</v>
       </c>
       <c r="AC29" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3374,22 +3875,25 @@
       <c r="AG29">
         <v>1.781537652015686</v>
       </c>
-      <c r="AH29" t="s">
-        <v>164</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300697</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-7.9</v>
@@ -3407,7 +3911,7 @@
         <v>26351.65</v>
       </c>
       <c r="J30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3449,10 +3953,25 @@
         <v>-0.28</v>
       </c>
       <c r="X30" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y30">
+        <v>-2.51</v>
+      </c>
+      <c r="Z30">
+        <v>17.44</v>
+      </c>
+      <c r="AA30">
+        <v>-2.84</v>
       </c>
       <c r="AC30" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3460,22 +3979,25 @@
       <c r="AG30">
         <v>28.27090835571289</v>
       </c>
-      <c r="AH30" t="s">
-        <v>164</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300803</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-5.16</v>
@@ -3493,7 +4015,7 @@
         <v>280827.88</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K31">
         <v>28</v>
@@ -3535,10 +4057,25 @@
         <v>-0.46</v>
       </c>
       <c r="X31" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y31">
+        <v>-3.51</v>
+      </c>
+      <c r="Z31">
+        <v>161.32</v>
+      </c>
+      <c r="AA31">
+        <v>-1.61</v>
       </c>
       <c r="AC31" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3546,22 +4083,25 @@
       <c r="AG31">
         <v>1.352853894233704</v>
       </c>
-      <c r="AH31" t="s">
-        <v>164</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300814</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.67</v>
@@ -3579,7 +4119,7 @@
         <v>9193.41</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3621,10 +4161,25 @@
         <v>-0.12</v>
       </c>
       <c r="X32" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y32">
+        <v>5.33</v>
+      </c>
+      <c r="Z32">
+        <v>54.36</v>
+      </c>
+      <c r="AA32">
+        <v>8.18</v>
       </c>
       <c r="AC32" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3632,22 +4187,25 @@
       <c r="AG32">
         <v>5.1365065574646</v>
       </c>
-      <c r="AH32" t="s">
-        <v>164</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300843</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-0.47</v>
@@ -3665,7 +4223,7 @@
         <v>24166.32</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3707,10 +4265,25 @@
         <v>-0.15</v>
       </c>
       <c r="X33" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y33">
+        <v>-3.21</v>
+      </c>
+      <c r="Z33">
+        <v>60.3</v>
+      </c>
+      <c r="AA33">
+        <v>0.67</v>
       </c>
       <c r="AC33" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3718,22 +4291,25 @@
       <c r="AG33">
         <v>-0.3236548602581024</v>
       </c>
-      <c r="AH33" t="s">
-        <v>164</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300852</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-5.29</v>
@@ -3751,7 +4327,7 @@
         <v>15706.88</v>
       </c>
       <c r="J34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3793,10 +4369,25 @@
         <v>0.08</v>
       </c>
       <c r="X34" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Y34">
+        <v>-3.84</v>
+      </c>
+      <c r="Z34">
+        <v>45.73</v>
+      </c>
+      <c r="AA34">
+        <v>-0.22</v>
       </c>
       <c r="AC34" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3804,22 +4395,25 @@
       <c r="AG34">
         <v>5.646667003631592</v>
       </c>
-      <c r="AH34" t="s">
-        <v>164</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300857</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>1.31</v>
@@ -3837,7 +4431,7 @@
         <v>85378.67999999999</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K35">
         <v>20</v>
@@ -3879,10 +4473,25 @@
         <v>0.06</v>
       </c>
       <c r="X35" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y35">
+        <v>0.26</v>
+      </c>
+      <c r="Z35">
+        <v>169</v>
+      </c>
+      <c r="AA35">
+        <v>-0.47</v>
       </c>
       <c r="AC35" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3890,22 +4499,25 @@
       <c r="AG35">
         <v>3.971075296401978</v>
       </c>
-      <c r="AH35" t="s">
-        <v>165</v>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300859</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>3.09</v>
@@ -3923,7 +4535,7 @@
         <v>21098.53</v>
       </c>
       <c r="J36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -3965,10 +4577,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X36" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y36">
+        <v>12.61</v>
+      </c>
+      <c r="Z36">
+        <v>58.88</v>
+      </c>
+      <c r="AA36">
+        <v>15.2</v>
       </c>
       <c r="AC36" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3976,22 +4603,25 @@
       <c r="AG36">
         <v>1.184084296226501</v>
       </c>
-      <c r="AH36" t="s">
-        <v>164</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300953</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>1.52</v>
@@ -4009,7 +4639,7 @@
         <v>40721.75</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K37">
         <v>17</v>
@@ -4051,10 +4681,25 @@
         <v>0.08</v>
       </c>
       <c r="X37" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y37">
+        <v>-5.04</v>
+      </c>
+      <c r="Z37">
+        <v>166.91</v>
+      </c>
+      <c r="AA37">
+        <v>-5.35</v>
       </c>
       <c r="AC37" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4062,22 +4707,25 @@
       <c r="AG37">
         <v>2.687304496765137</v>
       </c>
-      <c r="AH37" t="s">
-        <v>164</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300959</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-8.109999999999999</v>
@@ -4095,7 +4743,7 @@
         <v>35823.32</v>
       </c>
       <c r="J38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -4137,10 +4785,25 @@
         <v>0.06</v>
       </c>
       <c r="X38" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y38">
+        <v>-1.95</v>
+      </c>
+      <c r="Z38">
+        <v>79.94</v>
+      </c>
+      <c r="AA38">
+        <v>6.09</v>
       </c>
       <c r="AC38" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4148,22 +4811,25 @@
       <c r="AG38">
         <v>2.652991771697998</v>
       </c>
-      <c r="AH38" t="s">
-        <v>164</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300969</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>6.85</v>
@@ -4181,7 +4847,7 @@
         <v>27805.33</v>
       </c>
       <c r="J39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4223,10 +4889,25 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="X39" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y39">
+        <v>-2.95</v>
+      </c>
+      <c r="Z39">
+        <v>116.36</v>
+      </c>
+      <c r="AA39">
+        <v>-1.24</v>
       </c>
       <c r="AC39" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4234,22 +4915,25 @@
       <c r="AG39">
         <v>6.891054630279541</v>
       </c>
-      <c r="AH39" t="s">
-        <v>164</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300984</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.2</v>
@@ -4267,7 +4951,7 @@
         <v>30791.74</v>
       </c>
       <c r="J40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4309,10 +4993,25 @@
         <v>-0.12</v>
       </c>
       <c r="X40" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Y40">
+        <v>1.07</v>
+      </c>
+      <c r="Z40">
+        <v>76.34999999999999</v>
+      </c>
+      <c r="AA40">
+        <v>-2.49</v>
       </c>
       <c r="AC40" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4320,22 +5019,25 @@
       <c r="AG40">
         <v>22.27874183654785</v>
       </c>
-      <c r="AH40" t="s">
-        <v>164</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301008</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>10.44</v>
@@ -4353,7 +5055,7 @@
         <v>46955.86</v>
       </c>
       <c r="J41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4395,10 +5097,25 @@
         <v>0.28</v>
       </c>
       <c r="X41" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y41">
+        <v>-2.03</v>
+      </c>
+      <c r="Z41">
+        <v>43.64</v>
+      </c>
+      <c r="AA41">
+        <v>-5.81</v>
       </c>
       <c r="AC41" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4406,22 +5123,25 @@
       <c r="AG41">
         <v>0.3478099405765533</v>
       </c>
-      <c r="AH41" t="s">
-        <v>164</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301012</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>4.19</v>
@@ -4439,7 +5159,7 @@
         <v>44140.7</v>
       </c>
       <c r="J42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4481,10 +5201,25 @@
         <v>0.83</v>
       </c>
       <c r="X42" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y42">
+        <v>-2.65</v>
+      </c>
+      <c r="Z42">
+        <v>27.62</v>
+      </c>
+      <c r="AA42">
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC42" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4492,22 +5227,25 @@
       <c r="AG42">
         <v>5.824085712432861</v>
       </c>
-      <c r="AH42" t="s">
-        <v>164</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301013</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>17</v>
@@ -4525,7 +5263,7 @@
         <v>107149.34</v>
       </c>
       <c r="J43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4567,10 +5305,25 @@
         <v>-0.19</v>
       </c>
       <c r="X43" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y43">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="Z43">
+        <v>29.79</v>
+      </c>
+      <c r="AA43">
+        <v>4.53</v>
       </c>
       <c r="AC43" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4578,22 +5331,25 @@
       <c r="AG43">
         <v>10.90725898742676</v>
       </c>
-      <c r="AH43" t="s">
-        <v>164</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301123</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-4.06</v>
@@ -4611,7 +5367,7 @@
         <v>16172.21</v>
       </c>
       <c r="J44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K44">
         <v>6</v>
@@ -4653,10 +5409,25 @@
         <v>-0.08</v>
       </c>
       <c r="X44" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y44">
+        <v>2.85</v>
+      </c>
+      <c r="Z44">
+        <v>52.55</v>
+      </c>
+      <c r="AA44">
+        <v>6.29</v>
       </c>
       <c r="AC44" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4664,22 +5435,25 @@
       <c r="AG44">
         <v>7.333200931549072</v>
       </c>
-      <c r="AH44" t="s">
-        <v>164</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301307</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>4.4</v>
@@ -4697,7 +5471,7 @@
         <v>31064.23</v>
       </c>
       <c r="J45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -4739,10 +5513,25 @@
         <v>0.25</v>
       </c>
       <c r="X45" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y45">
+        <v>-2.34</v>
+      </c>
+      <c r="Z45">
+        <v>42.08</v>
+      </c>
+      <c r="AA45">
+        <v>3.09</v>
       </c>
       <c r="AC45" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4750,22 +5539,25 @@
       <c r="AG45">
         <v>2.739251613616943</v>
       </c>
-      <c r="AH45" t="s">
-        <v>164</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301396</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>2.57</v>
@@ -4783,7 +5575,7 @@
         <v>22301.08</v>
       </c>
       <c r="J46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4825,10 +5617,25 @@
         <v>-0.01</v>
       </c>
       <c r="X46" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Y46">
+        <v>-3.99</v>
+      </c>
+      <c r="Z46">
+        <v>76.77</v>
+      </c>
+      <c r="AA46">
+        <v>-4.26</v>
       </c>
       <c r="AC46" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4836,22 +5643,25 @@
       <c r="AG46">
         <v>3.057893514633179</v>
       </c>
-      <c r="AH46" t="s">
-        <v>164</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301413</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-3.85</v>
@@ -4869,7 +5679,7 @@
         <v>45498.42</v>
       </c>
       <c r="J47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K47">
         <v>20</v>
@@ -4911,10 +5721,25 @@
         <v>-0.01</v>
       </c>
       <c r="X47" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y47">
+        <v>-9.050000000000001</v>
+      </c>
+      <c r="Z47">
+        <v>178.1</v>
+      </c>
+      <c r="AA47">
+        <v>-5.26</v>
       </c>
       <c r="AC47" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4922,22 +5747,25 @@
       <c r="AG47">
         <v>4.478789329528809</v>
       </c>
-      <c r="AH47" t="s">
-        <v>164</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301488</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-7.41</v>
@@ -4955,7 +5783,7 @@
         <v>73477.17</v>
       </c>
       <c r="J48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K48">
         <v>17</v>
@@ -4997,10 +5825,25 @@
         <v>-0.67</v>
       </c>
       <c r="X48" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y48">
+        <v>-11.92</v>
+      </c>
+      <c r="Z48">
+        <v>198.4</v>
+      </c>
+      <c r="AA48">
+        <v>-1.72</v>
       </c>
       <c r="AC48" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5008,22 +5851,25 @@
       <c r="AG48">
         <v>7.852254390716553</v>
       </c>
-      <c r="AH48" t="s">
-        <v>164</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301550</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>5.15</v>
@@ -5041,7 +5887,7 @@
         <v>40415.68</v>
       </c>
       <c r="J49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -5083,10 +5929,25 @@
         <v>0.11</v>
       </c>
       <c r="X49" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y49">
+        <v>-7</v>
+      </c>
+      <c r="Z49">
+        <v>127.89</v>
+      </c>
+      <c r="AA49">
+        <v>-6.16</v>
       </c>
       <c r="AC49" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5094,22 +5955,25 @@
       <c r="AG49">
         <v>3.860490560531616</v>
       </c>
-      <c r="AH49" t="s">
-        <v>164</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688041</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>7.96</v>
@@ -5127,7 +5991,7 @@
         <v>401427.12</v>
       </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5169,10 +6033,25 @@
         <v>0.05</v>
       </c>
       <c r="X50" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Y50">
+        <v>-3.22</v>
+      </c>
+      <c r="Z50">
+        <v>249.99</v>
+      </c>
+      <c r="AA50">
+        <v>-4.59</v>
       </c>
       <c r="AC50" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5180,22 +6059,25 @@
       <c r="AG50">
         <v>-13.47694778442383</v>
       </c>
-      <c r="AH50" t="s">
-        <v>164</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688062</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>13.94</v>
@@ -5213,7 +6095,7 @@
         <v>119873.98</v>
       </c>
       <c r="J51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5254,8 +6136,23 @@
       <c r="W51">
         <v>0.74</v>
       </c>
+      <c r="Y51">
+        <v>-5.88</v>
+      </c>
+      <c r="Z51">
+        <v>54.72</v>
+      </c>
+      <c r="AA51">
+        <v>-0.6899999999999999</v>
+      </c>
       <c r="AC51" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5263,22 +6160,25 @@
       <c r="AG51">
         <v>-2.532344818115234</v>
       </c>
-      <c r="AH51" t="s">
-        <v>164</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688135</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>14.15</v>
@@ -5296,7 +6196,7 @@
         <v>81958.94</v>
       </c>
       <c r="J52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K52">
         <v>13</v>
@@ -5338,10 +6238,25 @@
         <v>0.37</v>
       </c>
       <c r="X52" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y52">
+        <v>-5.5</v>
+      </c>
+      <c r="Z52">
+        <v>35.85</v>
+      </c>
+      <c r="AA52">
+        <v>-6.64</v>
       </c>
       <c r="AC52" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5349,22 +6264,25 @@
       <c r="AG52">
         <v>3.973577260971069</v>
       </c>
-      <c r="AH52" t="s">
-        <v>164</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688141</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>2.36</v>
@@ -5382,7 +6300,7 @@
         <v>15803.12</v>
       </c>
       <c r="J53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K53">
         <v>12</v>
@@ -5424,10 +6342,25 @@
         <v>0.23</v>
       </c>
       <c r="X53" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y53">
+        <v>-2.9</v>
+      </c>
+      <c r="Z53">
+        <v>52.8</v>
+      </c>
+      <c r="AA53">
+        <v>3</v>
       </c>
       <c r="AC53" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5435,22 +6368,25 @@
       <c r="AG53">
         <v>4.068181037902832</v>
       </c>
-      <c r="AH53" t="s">
-        <v>164</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688147</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>1.39</v>
@@ -5468,7 +6404,7 @@
         <v>9750.440000000001</v>
       </c>
       <c r="J54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K54">
         <v>24</v>
@@ -5510,10 +6446,25 @@
         <v>0.14</v>
       </c>
       <c r="X54" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y54">
+        <v>0.3</v>
+      </c>
+      <c r="Z54">
+        <v>49.61</v>
+      </c>
+      <c r="AA54">
+        <v>0.22</v>
       </c>
       <c r="AC54" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5521,22 +6472,25 @@
       <c r="AG54">
         <v>4.793768405914307</v>
       </c>
-      <c r="AH54" t="s">
-        <v>164</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688167</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1.63</v>
@@ -5554,7 +6508,7 @@
         <v>30150.7</v>
       </c>
       <c r="J55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K55">
         <v>10</v>
@@ -5596,10 +6550,25 @@
         <v>0.05</v>
       </c>
       <c r="X55" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y55">
+        <v>-1.09</v>
+      </c>
+      <c r="Z55">
+        <v>186</v>
+      </c>
+      <c r="AA55">
+        <v>4</v>
       </c>
       <c r="AC55" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5607,22 +6576,25 @@
       <c r="AG55">
         <v>5.31403112411499</v>
       </c>
-      <c r="AH55" t="s">
-        <v>164</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688195</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0.76</v>
@@ -5640,7 +6612,7 @@
         <v>19567.12</v>
       </c>
       <c r="J56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K56">
         <v>24</v>
@@ -5682,10 +6654,25 @@
         <v>-0.03</v>
       </c>
       <c r="X56" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Y56">
+        <v>14.94</v>
+      </c>
+      <c r="Z56">
+        <v>137.79</v>
+      </c>
+      <c r="AA56">
+        <v>24.31</v>
       </c>
       <c r="AC56" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5693,22 +6680,25 @@
       <c r="AG56">
         <v>1.963634848594666</v>
       </c>
-      <c r="AH56" t="s">
-        <v>164</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688205</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>2.56</v>
@@ -5726,7 +6716,7 @@
         <v>51157.67</v>
       </c>
       <c r="J57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5768,10 +6758,25 @@
         <v>0.09</v>
       </c>
       <c r="X57" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y57">
+        <v>9.69</v>
+      </c>
+      <c r="Z57">
+        <v>161.7</v>
+      </c>
+      <c r="AA57">
+        <v>34.75</v>
       </c>
       <c r="AC57" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5779,22 +6784,25 @@
       <c r="AG57">
         <v>2.283217668533325</v>
       </c>
-      <c r="AH57" t="s">
-        <v>164</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688228</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>0.06</v>
@@ -5812,7 +6820,7 @@
         <v>16515.41</v>
       </c>
       <c r="J58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K58">
         <v>7</v>
@@ -5854,10 +6862,25 @@
         <v>-0.24</v>
       </c>
       <c r="X58" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Y58">
+        <v>7.32</v>
+      </c>
+      <c r="Z58">
+        <v>195.78</v>
+      </c>
+      <c r="AA58">
+        <v>9.09</v>
       </c>
       <c r="AC58" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5865,22 +6888,25 @@
       <c r="AG58">
         <v>5.070191383361816</v>
       </c>
-      <c r="AH58" t="s">
-        <v>164</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688256</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>4.79</v>
@@ -5898,7 +6924,7 @@
         <v>530946.3</v>
       </c>
       <c r="J59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -5940,10 +6966,25 @@
         <v>0.01</v>
       </c>
       <c r="X59" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y59">
+        <v>-5.05</v>
+      </c>
+      <c r="Z59">
+        <v>1420</v>
+      </c>
+      <c r="AA59">
+        <v>-6.03</v>
       </c>
       <c r="AC59" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5951,22 +6992,25 @@
       <c r="AG59">
         <v>25.5705509185791</v>
       </c>
-      <c r="AH59" t="s">
-        <v>164</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688343</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>5.81</v>
@@ -5984,7 +7028,7 @@
         <v>60771.17</v>
       </c>
       <c r="J60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -6026,10 +7070,25 @@
         <v>0.24</v>
       </c>
       <c r="X60" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y60">
+        <v>-4.33</v>
+      </c>
+      <c r="Z60">
+        <v>90.52</v>
+      </c>
+      <c r="AA60">
+        <v>-3.27</v>
       </c>
       <c r="AC60" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6037,22 +7096,25 @@
       <c r="AG60">
         <v>2.372989654541016</v>
       </c>
-      <c r="AH60" t="s">
-        <v>164</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688411</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-3.76</v>
@@ -6070,7 +7132,7 @@
         <v>11568.21</v>
       </c>
       <c r="J61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -6112,10 +7174,25 @@
         <v>-0.08</v>
       </c>
       <c r="X61" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y61">
+        <v>1.71</v>
+      </c>
+      <c r="Z61">
+        <v>203.3</v>
+      </c>
+      <c r="AA61">
+        <v>0.59</v>
       </c>
       <c r="AC61" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6123,22 +7200,25 @@
       <c r="AG61">
         <v>3.881809234619141</v>
       </c>
-      <c r="AH61" t="s">
-        <v>164</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688502</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>3.3</v>
@@ -6156,7 +7236,7 @@
         <v>20186.72</v>
       </c>
       <c r="J62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -6198,10 +7278,25 @@
         <v>0.12</v>
       </c>
       <c r="X62" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y62">
+        <v>3.93</v>
+      </c>
+      <c r="Z62">
+        <v>490</v>
+      </c>
+      <c r="AA62">
+        <v>9.49</v>
       </c>
       <c r="AC62" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6209,22 +7304,25 @@
       <c r="AG62">
         <v>5.320850372314453</v>
       </c>
-      <c r="AH62" t="s">
-        <v>164</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688521</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>2.58</v>
@@ -6242,7 +7340,7 @@
         <v>94550.60000000001</v>
       </c>
       <c r="J63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K63">
         <v>12</v>
@@ -6284,10 +7382,25 @@
         <v>-0.01</v>
       </c>
       <c r="X63" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y63">
+        <v>-1.14</v>
+      </c>
+      <c r="Z63">
+        <v>176.88</v>
+      </c>
+      <c r="AA63">
+        <v>-0.21</v>
       </c>
       <c r="AC63" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6295,22 +7408,25 @@
       <c r="AG63">
         <v>12.69256687164307</v>
       </c>
-      <c r="AH63" t="s">
-        <v>164</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688593</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>11.6</v>
@@ -6328,7 +7444,7 @@
         <v>28040</v>
       </c>
       <c r="J64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6370,10 +7486,25 @@
         <v>0.13</v>
       </c>
       <c r="X64" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y64">
+        <v>0.59</v>
+      </c>
+      <c r="Z64">
+        <v>26.8</v>
+      </c>
+      <c r="AA64">
+        <v>0.6</v>
       </c>
       <c r="AC64" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6381,22 +7512,25 @@
       <c r="AG64">
         <v>10.30194568634033</v>
       </c>
-      <c r="AH64" t="s">
-        <v>164</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688627</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>4.69</v>
@@ -6414,7 +7548,7 @@
         <v>26391.72</v>
       </c>
       <c r="J65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K65">
         <v>5</v>
@@ -6455,8 +7589,23 @@
       <c r="W65">
         <v>-0.03</v>
       </c>
+      <c r="Y65">
+        <v>1.81</v>
+      </c>
+      <c r="Z65">
+        <v>156.8</v>
+      </c>
+      <c r="AA65">
+        <v>4.88</v>
+      </c>
       <c r="AC65" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6464,22 +7613,25 @@
       <c r="AG65">
         <v>2.926565170288086</v>
       </c>
-      <c r="AH65" t="s">
-        <v>164</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688629</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>5.5</v>
@@ -6497,7 +7649,7 @@
         <v>74999.67</v>
       </c>
       <c r="J66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K66">
         <v>6</v>
@@ -6539,10 +7691,25 @@
         <v>0.08</v>
       </c>
       <c r="X66" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="Y66">
+        <v>-1.19</v>
+      </c>
+      <c r="Z66">
+        <v>113</v>
+      </c>
+      <c r="AA66">
+        <v>21.01</v>
       </c>
       <c r="AC66" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>1</v>
@@ -6550,22 +7717,25 @@
       <c r="AG66">
         <v>7.758301734924316</v>
       </c>
-      <c r="AH66" t="s">
-        <v>165</v>
+      <c r="AH66">
+        <v>1</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688766</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>0.84</v>
@@ -6583,7 +7753,7 @@
         <v>34648.6</v>
       </c>
       <c r="J67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6625,10 +7795,25 @@
         <v>-0.2</v>
       </c>
       <c r="X67" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y67">
+        <v>3.12</v>
+      </c>
+      <c r="Z67">
+        <v>112.88</v>
+      </c>
+      <c r="AA67">
+        <v>6.5</v>
       </c>
       <c r="AC67" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6636,22 +7821,25 @@
       <c r="AG67">
         <v>6.523641109466553</v>
       </c>
-      <c r="AH67" t="s">
-        <v>164</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688981</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>2.49</v>
@@ -6669,7 +7857,7 @@
         <v>395678.87</v>
       </c>
       <c r="J68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K68">
         <v>6</v>
@@ -6710,8 +7898,23 @@
       <c r="W68">
         <v>-0.02</v>
       </c>
+      <c r="Y68">
+        <v>-0.66</v>
+      </c>
+      <c r="Z68">
+        <v>127.4</v>
+      </c>
+      <c r="AA68">
+        <v>5.89</v>
+      </c>
       <c r="AC68" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>1</v>
@@ -6719,8 +7922,11 @@
       <c r="AG68">
         <v>38.0936164855957</v>
       </c>
-      <c r="AH68" t="s">
-        <v>164</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
